--- a/files/TablaUniversal.xlsx
+++ b/files/TablaUniversal.xlsx
@@ -20,7 +20,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="59">
+  <si>
+    <t xml:space="preserve">dni</t>
+  </si>
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -202,7 +205,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="YYYY\-MM\-DD;@"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -284,24 +287,28 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -318,358 +325,386 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
+      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="24.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="12.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="28.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="17.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="12.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="10.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="12" style="0" width="9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="14.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="10.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="24.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="1" width="12.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="28.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="17.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="12.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="10.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1026" min="13" style="1" width="9"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="0" t="s">
+    </row>
+    <row r="2" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>1105007896</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="3" t="n">
+      <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="4" t="n">
         <v>36537</v>
       </c>
-      <c r="D2" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="F2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="G2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="H2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="0" t="n">
+      <c r="I2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="J2" s="0" t="s">
+      <c r="K2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="1" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>1105007897</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="4" t="n">
+        <v>35851</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" s="1" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>1105007898</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="4" t="n">
+        <v>37362</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L4" s="1" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>1105007899</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>36495</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J5" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L5" s="1" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>1105007900</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>37602</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J6" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L6" s="1" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>1105007901</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="4" t="n">
+        <v>37357</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="0" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="3" t="n">
-        <v>35851</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="I3" s="0" t="n">
+      <c r="J7" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L7" s="1" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" s="5" customFormat="true" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>1105007902</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="4" t="n">
+        <v>37357</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="J8" s="5" t="n">
+        <v>8</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="L8" s="5" t="n">
+        <v>30</v>
+      </c>
+      <c r="M8" s="1"/>
+    </row>
+    <row r="9" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>1105007903</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="4" t="n">
+        <v>36192</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J9" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="J3" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="K3" s="0" t="n">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="3" t="n">
-        <v>37362</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="I4" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="J4" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="K4" s="0" t="n">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="3" t="n">
-        <v>36495</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="I5" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="J5" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="K5" s="0" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="K9" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" s="3" t="n">
-        <v>37602</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="J6" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="K6" s="0" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="C7" s="3" t="n">
-        <v>37357</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="G7" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="I7" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="J7" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="K7" s="0" t="n">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" s="3" t="n">
-        <v>37357</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="I8" s="4" t="n">
-        <v>8</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="K8" s="4" t="n">
-        <v>30</v>
-      </c>
-      <c r="L8" s="0"/>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="C9" s="3" t="n">
-        <v>36192</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="G9" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="H9" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="I9" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="J9" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="K9" s="0" t="n">
+      <c r="L9" s="1" t="n">
         <v>30</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="nboss@mail.com"/>
-    <hyperlink ref="D3" r:id="rId2" display="jean.vernier@hotmail.com"/>
-    <hyperlink ref="D4" r:id="rId3" display="j_macas@gmail.com"/>
-    <hyperlink ref="D5" r:id="rId4" display="jairo_sam@outlock.com"/>
-    <hyperlink ref="D6" r:id="rId5" display="dbenitez@utpl.edu.ec"/>
-    <hyperlink ref="D7" r:id="rId6" display="redoquinoa@github.com"/>
-    <hyperlink ref="D8" r:id="rId7" display="redoquinoa@github.com"/>
-    <hyperlink ref="D9" r:id="rId8" display="dan.chardin@mail.com"/>
+    <hyperlink ref="E2" r:id="rId1" display="nboss@mail.com"/>
+    <hyperlink ref="E3" r:id="rId2" display="jean.vernier@hotmail.com"/>
+    <hyperlink ref="E4" r:id="rId3" display="j_macas@gmail.com"/>
+    <hyperlink ref="E5" r:id="rId4" display="jairo_sam@outlock.com"/>
+    <hyperlink ref="E6" r:id="rId5" display="dbenitez@utpl.edu.ec"/>
+    <hyperlink ref="E7" r:id="rId6" display="redoquinoa@github.com"/>
+    <hyperlink ref="E8" r:id="rId7" display="redoquinoa@github.com"/>
+    <hyperlink ref="E9" r:id="rId8" display="dan.chardin@mail.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
